--- a/medicine/Pharmacie/Pegaptanib/Pegaptanib.xlsx
+++ b/medicine/Pharmacie/Pegaptanib/Pegaptanib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pegaptanib, est vendu sous la marque Macugen[1].
+Le pegaptanib, est vendu sous la marque Macugen.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la dégénérescence maculaire liée à l'âge  humide[1]. Le médicament était utilisé par injection dans l’œil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la dégénérescence maculaire liée à l'âge  humide. Le médicament était utilisé par injection dans l’œil.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent une vision floue, des cataractes, des saignements conjonctivals, des douleurs oculaires et une augmentation de la pression intraoculaire ; [2] d'autres effets secondaires peuvent inclure l'anaphylaxie et l'endophtalmie [2]. Le médicament agit en bloquant le facteur de croissance endothélial vasculaire [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent une vision floue, des cataractes, des saignements conjonctivals, des douleurs oculaires et une augmentation de la pression intraoculaire ;  d'autres effets secondaires peuvent inclure l'anaphylaxie et l'endophtalmie . Le médicament agit en bloquant le facteur de croissance endothélial vasculaire .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2004[3]. Bien qu'il ait été approuvé en Europe en 2006, cette approbation a ensuite été retirée[4]. Aux États-Unis, un flacon de 0,3 mg coûte environ 780 dollars américains [5]. Depuis 2016, il n'est plus disponible aux États-Unis[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2004. Bien qu'il ait été approuvé en Europe en 2006, cette approbation a ensuite été retirée. Aux États-Unis, un flacon de 0,3 mg coûte environ 780 dollars américains . Depuis 2016, il n'est plus disponible aux États-Unis.
 </t>
         </is>
       </c>
